--- a/data/trans_camb/P17G_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P17G_R2-Provincia-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-1.066075870221301</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.0332763677550512</v>
+        <v>0.03327636775505051</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-2.78225906953069</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.299806421689675</v>
+        <v>-6.59517494339501</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.727356760253389</v>
+        <v>-2.636644394638124</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.228781710962173</v>
+        <v>-5.202706645549507</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.538558993828062</v>
+        <v>-4.578812448595007</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.965426723142163</v>
+        <v>-3.756170799728767</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.990896857302974</v>
+        <v>-2.738117166834041</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.583489499787423</v>
+        <v>-4.694625245983162</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.44189493069218</v>
+        <v>-2.531032513074939</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.024760678298343</v>
+        <v>-3.020536499126549</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.687552604575036</v>
+        <v>-1.493913802674425</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.125874082896564</v>
+        <v>4.462169469356779</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2017410282463077</v>
+        <v>0.6176980764147678</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.03365745036758088</v>
+        <v>0.2009557424985433</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.216074586841012</v>
+        <v>1.130247554119559</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.106921992480975</v>
+        <v>2.332623582271976</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.280139796897683</v>
+        <v>-1.379723590707792</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.856881206088923</v>
+        <v>1.910956961639453</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6816952617839721</v>
+        <v>0.6386005204028437</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1507376916692543</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.5420444213024834</v>
+        <v>-0.5420444213024833</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.7263752549596875</v>
@@ -760,7 +760,7 @@
         <v>-0.4129217683274272</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0128888918704043</v>
+        <v>0.01288889187040403</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.8445715185983818</v>
@@ -783,28 +783,28 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5587020157609359</v>
+        <v>-0.5357032507383461</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8562510237305931</v>
+        <v>-0.8586900223228556</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8767159140491791</v>
+        <v>-0.8665420128043563</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6140579206330739</v>
+        <v>-0.6254105744167567</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.9602004470160199</v>
+        <v>-0.9640981376999592</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5647535798442019</v>
+        <v>-0.5667731917868751</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.657242085892538</v>
+        <v>-0.6540439489106745</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.211822641812775</v>
+        <v>-0.4356753432440399</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.798616016008252</v>
+        <v>2.018214708081643</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2947069033533365</v>
+        <v>0.4528417512317336</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.564544029787349</v>
+        <v>1.152019000304231</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.697386803729059</v>
+        <v>1.392233049051471</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.086602569955904</v>
+        <v>2.074591444675259</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.4387061897360821</v>
+        <v>-0.4609150862001612</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.876491630347391</v>
+        <v>0.8892229466177529</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4076241603062994</v>
+        <v>0.3377936756456253</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.8069553065967506</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.6798894974926731</v>
+        <v>-0.6798894974926732</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.02475404996583157</v>
@@ -878,7 +878,7 @@
         <v>-0.3759328602109953</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.02983629604420505</v>
+        <v>-0.02983629604420539</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9358435535731464</v>
+        <v>-0.8647045031007701</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.396701238258438</v>
+        <v>-1.438362001045572</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9874450784185874</v>
+        <v>-0.889431213661603</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.204290068417391</v>
+        <v>-2.108212760582252</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.293582508898996</v>
+        <v>-2.39370481839233</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.323678984579031</v>
+        <v>-2.357913851268392</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.135085597003134</v>
+        <v>-1.099361774194287</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.312356136383517</v>
+        <v>-1.47065673538413</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.223499004401695</v>
+        <v>-1.240297106699089</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.544766613492031</v>
+        <v>2.741962080292941</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.426816579622018</v>
+        <v>1.522394129188201</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.188666429871778</v>
+        <v>2.062811404579592</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9845036276354423</v>
+        <v>1.023417290715062</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6713516386595402</v>
+        <v>0.6259129633074944</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6769632719416799</v>
+        <v>0.7451849285614016</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.179497872617818</v>
+        <v>1.343265636136077</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7700112572501093</v>
+        <v>0.6765169049926641</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9518009764806521</v>
+        <v>0.9723786673888296</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.4001831988933484</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.3371690498549163</v>
+        <v>-0.3371690498549164</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.01669785293281985</v>
@@ -983,7 +983,7 @@
         <v>-0.2535856403732781</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.02012608377594322</v>
+        <v>-0.02012608377594345</v>
       </c>
     </row>
     <row r="14">
@@ -993,28 +993,30 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr"/>
+      <c r="C14" s="6" t="n">
+        <v>-0.6925370799163676</v>
+      </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>-0.7271160798612818</v>
+        <v>-0.6976824897251954</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7605029039385661</v>
+        <v>-0.7507373082935247</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8240952430612024</v>
+        <v>-0.821077774503847</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7802606351170547</v>
+        <v>-0.7670124457539288</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5421857558434152</v>
+        <v>-0.5654939887817986</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6818769883226975</v>
+        <v>-0.7025950619086003</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5760714475392271</v>
+        <v>-0.5607671900705554</v>
       </c>
     </row>
     <row r="15">
@@ -1027,25 +1029,25 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>7.345724638786121</v>
+        <v>11.05038015911013</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.921811489410943</v>
+        <v>1.221969127370418</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7504341545788957</v>
+        <v>0.9082448273793651</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6697209186615312</v>
+        <v>0.776391145092487</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.407502530846521</v>
+        <v>1.586973370180432</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9902457440172089</v>
+        <v>0.8922650010814359</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9604805391114116</v>
+        <v>1.15740856360132</v>
       </c>
     </row>
     <row r="16">
@@ -1066,7 +1068,7 @@
         <v>0.8554792625377685</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2622651996542528</v>
+        <v>0.2622651996542524</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.5341935629025395</v>
@@ -1084,7 +1086,7 @@
         <v>0.742392894192739</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.6989297489402583</v>
+        <v>0.6989297489402579</v>
       </c>
     </row>
     <row r="17">
@@ -1095,31 +1097,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.623957991902792</v>
+        <v>-1.961226230912458</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.110804983414703</v>
+        <v>-1.105030058701649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.704850215185861</v>
+        <v>-1.394811172169272</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.8685747713000815</v>
+        <v>-0.8338161636203899</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.805500449999846</v>
+        <v>-0.8191866539002841</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.3272934519440843</v>
+        <v>-0.349819366573099</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.8068751723571479</v>
+        <v>-0.8113092903618865</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.5398728366258081</v>
+        <v>-0.3922877630743163</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.4354360959507347</v>
+        <v>-0.44331118500996</v>
       </c>
     </row>
     <row r="18">
@@ -1130,31 +1132,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.872907225962479</v>
+        <v>1.772167320654952</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.810778809721312</v>
+        <v>2.621524411316707</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.053792422569587</v>
+        <v>1.866281251805753</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.929214275950441</v>
+        <v>2.882289932709834</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.385607971972677</v>
+        <v>2.352999274260033</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.541923117233611</v>
+        <v>2.486129106288331</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.631715887927939</v>
+        <v>1.785468931418948</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.968249235914867</v>
+        <v>1.99588035335526</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.847688958128875</v>
+        <v>1.881683822912064</v>
       </c>
     </row>
     <row r="19">
@@ -1171,7 +1173,7 @@
         <v>0.7707280417392918</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2362829265390434</v>
+        <v>0.2362829265390431</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.643334030041008</v>
@@ -1189,7 +1191,7 @@
         <v>0.7676980322805897</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7227534061290465</v>
+        <v>0.7227534061290461</v>
       </c>
     </row>
     <row r="20">
@@ -1199,26 +1201,28 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr"/>
+      <c r="C20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7235181616742435</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>-0.9175837764888946</v>
-      </c>
+        <v>-0.7315181223067306</v>
+      </c>
+      <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
-      <c r="G20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="n">
+        <v>-0.7524914304689259</v>
+      </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4299147752070727</v>
+        <v>-0.4964778226685215</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.669553860691365</v>
+        <v>-0.6453384606232482</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4514373996196365</v>
+        <v>-0.3227972655047746</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3780788327918413</v>
+        <v>-0.3411570687527211</v>
       </c>
     </row>
     <row r="21">
@@ -1230,22 +1234,22 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>9.843825638172561</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>7.231536698432157</v>
-      </c>
+        <v>8.220741298739282</v>
+      </c>
+      <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="n">
+        <v>8.768029469837662</v>
+      </c>
       <c r="I21" s="6" t="n">
-        <v>4.085040704251417</v>
+        <v>4.173206002571518</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>4.297065280349357</v>
+        <v>4.418353304585483</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.946732465917351</v>
+        <v>4.413573803315009</v>
       </c>
     </row>
     <row r="22">
@@ -1295,31 +1299,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2580538354357087</v>
+        <v>-0.1113975989125606</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.053779913141774</v>
+        <v>-1.02773251695864</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.2426820674125025</v>
+        <v>-0.2374161827474507</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.995557541145043</v>
+        <v>-2.023721823241805</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1652349696850858</v>
+        <v>0.02554075943469278</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.9479872856071384</v>
+        <v>-0.8993923666263991</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.7196522361283075</v>
+        <v>-0.7010577978390147</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.1447541757069728</v>
+        <v>-0.0769305275013082</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.0827393876875326</v>
+        <v>0.0005968849725701519</v>
       </c>
     </row>
     <row r="24">
@@ -1330,31 +1334,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.998919902917224</v>
+        <v>3.913132887560103</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.807773250185922</v>
+        <v>1.955682148315165</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.20288133199647</v>
+        <v>3.295929290121043</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7478412924714337</v>
+        <v>0.7455267278969328</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.787691120961002</v>
+        <v>4.920422535462173</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.564446042927772</v>
+        <v>2.458036838271844</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.680507275751606</v>
+        <v>1.729050879370778</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.757980930947697</v>
+        <v>2.728658325555715</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.315993907575132</v>
+        <v>2.422464486465393</v>
       </c>
     </row>
     <row r="25">
@@ -1389,7 +1393,7 @@
         <v>1.17465112879721</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.006006334894718</v>
+        <v>1.006006334894717</v>
       </c>
     </row>
     <row r="26">
@@ -1400,29 +1404,29 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6926061193160553</v>
+        <v>-0.572749648301612</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>-0.5555905850761576</v>
+        <v>-0.5021321554734082</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2536890760143427</v>
+        <v>-0.1908367187482557</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5618658464236873</v>
+        <v>-0.5706154063382157</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5851297093337674</v>
+        <v>-0.5261136669107684</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1940107812676268</v>
+        <v>-0.170653022669102</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1154986399738648</v>
+        <v>-0.125207021147405</v>
       </c>
     </row>
     <row r="27">
@@ -1432,30 +1436,28 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n">
-        <v>13.45155098792973</v>
-      </c>
+      <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>12.22718415320565</v>
+        <v>13.03924559723203</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.246995483670243</v>
+        <v>2.243549694673435</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8.657068507487018</v>
+        <v>8.604576233118232</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.909824852688692</v>
+        <v>5.10562509049657</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.890526881826448</v>
+        <v>2.816888829835311</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4.646577106315481</v>
+        <v>4.660769580782519</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4.319135078694245</v>
+        <v>4.734099310023269</v>
       </c>
     </row>
     <row r="28">
@@ -1505,31 +1507,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.157958252771015</v>
+        <v>-0.8128417908205274</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.8515681936157242</v>
+        <v>-0.8579589436709554</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.048548202008243</v>
+        <v>-2.099632573152524</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.662574948632736</v>
+        <v>-2.970805647425468</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.499096856711997</v>
+        <v>-4.471983903101864</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.013175475381516</v>
+        <v>-4.134470596328789</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.27901343834028</v>
+        <v>-1.408337934882254</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.991745436055002</v>
+        <v>-1.969213136707745</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.047208163070614</v>
+        <v>-2.200147509783821</v>
       </c>
     </row>
     <row r="30">
@@ -1540,31 +1542,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.644469913705309</v>
+        <v>2.969948305964379</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.8976654451837</v>
+        <v>4.280710832005453</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.117202031367959</v>
+        <v>1.129622946274994</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.476127561253163</v>
+        <v>3.578928430390534</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7414164131199088</v>
+        <v>0.7057277824182291</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.64103918999398</v>
+        <v>1.379410825863971</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.415942068288325</v>
+        <v>2.338072650425183</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.487846156896243</v>
+        <v>1.531539223979426</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.035418261302109</v>
+        <v>0.9665300290127352</v>
       </c>
     </row>
     <row r="31">
@@ -1613,20 +1615,20 @@
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="n">
-        <v>-0.8019055089833688</v>
+        <v>-0.7505409081352681</v>
       </c>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="n">
-        <v>-0.8693734693945296</v>
+        <v>-0.8431152566559315</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.6142913006644934</v>
+        <v>-0.6373712926060725</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.8692880883524354</v>
+        <v>-0.8438148522565192</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7650624837546997</v>
+        <v>-0.7887347933806074</v>
       </c>
     </row>
     <row r="33">
@@ -1640,20 +1642,20 @@
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="n">
-        <v>4.816462537865971</v>
+        <v>4.315987371279588</v>
       </c>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="n">
-        <v>2.636692288287265</v>
+        <v>2.164957590623338</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>3.626599167268894</v>
+        <v>3.308112743907635</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.334617962868025</v>
+        <v>2.631599619676713</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.761535079708402</v>
+        <v>1.962520584739787</v>
       </c>
     </row>
     <row r="34">
@@ -1703,31 +1705,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.414576477197712</v>
+        <v>-3.383025920867673</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.452101205116673</v>
+        <v>-2.415410485710173</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.743469249693196</v>
+        <v>-2.756813545091636</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.878631376767532</v>
+        <v>-1.680168304253106</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0</v>
+        <v>0.01263183733830079</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.06060322025863096</v>
+        <v>-0.08625129673890466</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.074954222437586</v>
+        <v>-1.92036423973997</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.7908017379609512</v>
+        <v>-0.8203913955953021</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.9659216419677412</v>
+        <v>-0.9115311729137192</v>
       </c>
     </row>
     <row r="36">
@@ -1738,31 +1740,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.3561292655667992</v>
+        <v>-0.3586367952042094</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.9072159846643012</v>
+        <v>0.9227332926334542</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.3660374691235729</v>
+        <v>0.1972660781621534</v>
       </c>
       <c r="F36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.927270336808914</v>
+        <v>2.912391113461893</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.718186815506014</v>
+        <v>2.575483858245162</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-0.3367963965575738</v>
+        <v>-0.3338947416049386</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.519845179287604</v>
+        <v>1.503623629574905</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.054784317887201</v>
+        <v>1.033411970374721</v>
       </c>
     </row>
     <row r="37">
@@ -1788,7 +1790,7 @@
         <v>3.279093650925265</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>3.384370381250602</v>
+        <v>3.384370381250601</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-1</v>
@@ -1809,16 +1811,18 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
-      <c r="E38" s="6" t="inlineStr"/>
+      <c r="E38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="inlineStr"/>
       <c r="I38" s="6" t="inlineStr"/>
       <c r="J38" s="6" t="n">
-        <v>-0.6458256188540645</v>
+        <v>-0.7380215318767028</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.6448706639980316</v>
+        <v>-0.6362438023018484</v>
       </c>
     </row>
     <row r="39">
@@ -1830,16 +1834,18 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
-      <c r="E39" s="6" t="inlineStr"/>
+      <c r="E39" s="6" t="n">
+        <v>0.652336976557691</v>
+      </c>
       <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="inlineStr"/>
       <c r="H39" s="6" t="inlineStr"/>
       <c r="I39" s="6" t="inlineStr"/>
       <c r="J39" s="6" t="n">
-        <v>6.764210739430121</v>
+        <v>4.35257483641317</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.853201993743972</v>
+        <v>2.995832515315614</v>
       </c>
     </row>
     <row r="40">
@@ -1878,7 +1884,7 @@
         <v>-0.0865716104554156</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.595323817326568</v>
+        <v>2.595323817326567</v>
       </c>
     </row>
     <row r="41">
@@ -1889,31 +1895,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.673046734698875</v>
+        <v>-0.8212948471286783</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.188702055896868</v>
+        <v>-1.191018162237903</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.4314385990822235</v>
+        <v>0.6042712147939383</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.158875887728961</v>
+        <v>-1.153248201810594</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.651326960169414</v>
+        <v>-1.787941889299071</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.288192586687684</v>
+        <v>1.181062415844057</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.5087567902319778</v>
+        <v>-0.4491518735359138</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.09586353957707</v>
+        <v>-1.130328366240612</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.321405787315602</v>
+        <v>1.412461336834026</v>
       </c>
     </row>
     <row r="42">
@@ -1924,31 +1930,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.78219392878916</v>
+        <v>1.885260442263098</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.570093450588791</v>
+        <v>1.36599283678524</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.255450319555375</v>
+        <v>4.513149979623835</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.039932829744949</v>
+        <v>2.062484685032618</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.066669646137186</v>
+        <v>1.138950622253093</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.805412862228329</v>
+        <v>4.798586159663454</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.551568203300811</v>
+        <v>1.635524381918459</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.8532140172188708</v>
+        <v>0.8716075322617065</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.905231267900551</v>
+        <v>3.948047700972523</v>
       </c>
     </row>
     <row r="43">
@@ -1994,31 +2000,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.417186847523318</v>
+        <v>-0.5105904248369648</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6625335839959381</v>
+        <v>-0.7276961597347138</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.122300136569875</v>
+        <v>0.2177577760586449</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4902722716281003</v>
+        <v>-0.4915206076518649</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6791343217647535</v>
+        <v>-0.704076403173282</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4017612828962656</v>
+        <v>0.4168038272799205</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3027892464029998</v>
+        <v>-0.2838678964239981</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5762754690118278</v>
+        <v>-0.5663900442689326</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.6655813946721093</v>
+        <v>0.6259342619391459</v>
       </c>
     </row>
     <row r="45">
@@ -2029,31 +2035,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.692132452052719</v>
+        <v>2.655953767753446</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.144907844054183</v>
+        <v>2.127852935580268</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>5.943140630880349</v>
+        <v>7.806952383329866</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.166345624237943</v>
+        <v>2.454702163308218</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.325392496573559</v>
+        <v>1.399099538713478</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>5.402893737631981</v>
+        <v>5.677632257920154</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.617486468834457</v>
+        <v>1.55216119388123</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.9295314764361974</v>
+        <v>0.9031175316978471</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>4.381733706023998</v>
+        <v>4.024605092722784</v>
       </c>
     </row>
     <row r="46">
@@ -2083,7 +2089,7 @@
         <v>0.7276530976749515</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-0.5154024159130959</v>
+        <v>-0.5154024159130957</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.8261692587988968</v>
@@ -2092,7 +2098,7 @@
         <v>0.7970250215156155</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-0.402355994489128</v>
+        <v>-0.4023559944891277</v>
       </c>
     </row>
     <row r="47">
@@ -2103,31 +2109,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.912664573709488</v>
+        <v>-1.761951580482272</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.6324352347274084</v>
+        <v>-0.5665088362290541</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.541447767824353</v>
+        <v>-1.576962259592303</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.487774385774481</v>
+        <v>-2.399571076081157</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.7277171863692485</v>
+        <v>-0.8061864505059221</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.779205867118256</v>
+        <v>-1.827790229498469</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.808531203392293</v>
+        <v>-1.67577420695517</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.3898718467790225</v>
+        <v>-0.2988875290893974</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.214697596924976</v>
+        <v>-1.249388287512982</v>
       </c>
     </row>
     <row r="48">
@@ -2138,31 +2144,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.7215085746112139</v>
+        <v>0.7484382030411421</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.32835345122901</v>
+        <v>2.418994510934152</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.161737281958372</v>
+        <v>1.032754756377257</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.1176817314881321</v>
+        <v>-0.006210680807844134</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.476559521258473</v>
+        <v>2.466717923472433</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.6428953577071158</v>
+        <v>0.5996613220095691</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.04446394205837188</v>
+        <v>0.06428161563545254</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.825619584794459</v>
+        <v>1.987719626624914</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.5690395680568623</v>
+        <v>0.4596505514271064</v>
       </c>
     </row>
     <row r="49">
@@ -2188,7 +2194,7 @@
         <v>0.3834705037496169</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.2716151758241433</v>
+        <v>-0.2716151758241432</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.4750453774267151</v>
@@ -2197,7 +2203,7 @@
         <v>0.4582875096501072</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.2313537489156505</v>
+        <v>-0.2313537489156504</v>
       </c>
     </row>
     <row r="50">
@@ -2208,31 +2214,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.8148792208583041</v>
+        <v>-0.7878970764756199</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3250379812912492</v>
+        <v>-0.3038843954837642</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6878598910880824</v>
+        <v>-0.7132502313976263</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.8723022132529028</v>
+        <v>-0.8523275408125385</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2985867355416251</v>
+        <v>-0.3248877853135941</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.6460060174071237</v>
+        <v>-0.6526524790964098</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.7511482838550767</v>
+        <v>-0.7347798123071858</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1868242073310869</v>
+        <v>-0.151449700740717</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.5542898752882522</v>
+        <v>-0.5605528925133607</v>
       </c>
     </row>
     <row r="51">
@@ -2243,31 +2249,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.8969337491325423</v>
+        <v>1.090666239519</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>2.736419263986708</v>
+        <v>2.650569958526585</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.344904064442259</v>
+        <v>1.329719343359992</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.03690276821570809</v>
+        <v>0.1520361070198547</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>2.313403385317042</v>
+        <v>2.023158322900573</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5777673565160026</v>
+        <v>0.5159300715324592</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1034182470829676</v>
+        <v>0.1237614255994147</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.452080246205106</v>
+        <v>1.71354266532609</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.5080116406118298</v>
+        <v>0.4151475986499504</v>
       </c>
     </row>
     <row r="52">
@@ -2288,7 +2294,7 @@
         <v>0.3982521361970864</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>0.3926271205113406</v>
+        <v>0.3926271205113402</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>-0.3964928428116682</v>
@@ -2317,31 +2323,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.7737416022351961</v>
+        <v>-0.6792272376577004</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.2330289353823058</v>
+        <v>-0.1926005017304668</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.2115386967156153</v>
+        <v>-0.2573806427215238</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.9961847369896406</v>
+        <v>-0.9931257676601437</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-0.4975906016425987</v>
+        <v>-0.4312333931446371</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.008096077717649589</v>
+        <v>-0.006137262659924246</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.6663642477661134</v>
+        <v>-0.6925815208537184</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.151247890206</v>
+        <v>-0.187652186816691</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>0.0716137994817035</v>
+        <v>0.07465986652581069</v>
       </c>
     </row>
     <row r="54">
@@ -2352,31 +2358,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.4711360448927188</v>
+        <v>0.4765409648263563</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.030236481777353</v>
+        <v>1.0505113472654</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.080563065862659</v>
+        <v>1.051837416349668</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.2133608428175967</v>
+        <v>0.2391857359220401</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.8610736860695128</v>
+        <v>0.8534346721525998</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.2731736558929</v>
+        <v>1.279444780541369</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.1976133149576811</v>
+        <v>0.1540660020467588</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.7497484232355525</v>
+        <v>0.7611323436745377</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>0.9346806692181244</v>
+        <v>1.012501709958984</v>
       </c>
     </row>
     <row r="55">
@@ -2393,7 +2399,7 @@
         <v>0.2802551027262686</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.2762967075148857</v>
+        <v>0.2762967075148854</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>-0.2428172107935559</v>
@@ -2422,31 +2428,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.4442576733854888</v>
+        <v>-0.3982235552603673</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1509090112465014</v>
+        <v>-0.1333578418830591</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1319981605950948</v>
+        <v>-0.1571654327752524</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.5003658004446133</v>
+        <v>-0.5174448536136526</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.2505192316033547</v>
+        <v>-0.2309146868089786</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.01566029252796551</v>
+        <v>-0.005904364715229313</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.3770261360399242</v>
+        <v>-0.395764083515208</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.09161733400102384</v>
+        <v>-0.1042321431042596</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.03963311172400266</v>
+        <v>0.03641003664975097</v>
       </c>
     </row>
     <row r="57">
@@ -2457,31 +2463,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.4184790240223427</v>
+        <v>0.4452049501128256</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.9094708918648786</v>
+        <v>0.8706280597864372</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.9893997992838162</v>
+        <v>0.9677739026268006</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1739342841906837</v>
+        <v>0.1870974668670937</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.6383134096225428</v>
+        <v>0.6434021981584629</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.9596803583947831</v>
+        <v>0.9669702931393304</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.154846828012893</v>
+        <v>0.1144250560853698</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.5555012355263061</v>
+        <v>0.5863294661593417</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.7085946133680481</v>
+        <v>0.7969857315379602</v>
       </c>
     </row>
     <row r="58">
